--- a/Guil/Output_backward_replace.xlsx
+++ b/Guil/Output_backward_replace.xlsx
@@ -709,7 +709,7 @@
         <v>1071257.64923423</v>
       </c>
       <c r="AA2" t="n">
-        <v>814254.8755000001</v>
+        <v>728455.2014792765</v>
       </c>
       <c r="AB2" t="n">
         <v>1598</v>
@@ -732,14 +732,20 @@
       <c r="AH2" t="n">
         <v>0.04587155963302753</v>
       </c>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AI2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.34</v>
+      </c>
       <c r="AL2" t="n">
-        <v>0.02752293577981652</v>
+        <v>0.04</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.07548965712548</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
@@ -822,7 +828,7 @@
         <v>1141260.426531957</v>
       </c>
       <c r="AA3" t="n">
-        <v>814254.8755000001</v>
+        <v>730406.6729804525</v>
       </c>
       <c r="AB3" t="n">
         <v>1598</v>
@@ -845,14 +851,20 @@
       <c r="AH3" t="n">
         <v>0.04587155963302753</v>
       </c>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AI3" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.28</v>
+      </c>
       <c r="AL3" t="n">
-        <v>0.02752293577981652</v>
+        <v>0.04</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.07548965712548</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -935,7 +947,7 @@
         <v>1549263.891918923</v>
       </c>
       <c r="AA4" t="n">
-        <v>814254.8755000001</v>
+        <v>1332366.947050274</v>
       </c>
       <c r="AB4" t="n">
         <v>1598</v>
@@ -958,14 +970,20 @@
       <c r="AH4" t="n">
         <v>0.04587155963302753</v>
       </c>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
+      <c r="AI4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.28</v>
+      </c>
       <c r="AL4" t="n">
-        <v>0.02752293577981652</v>
+        <v>0.09</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.07548965712548</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
@@ -1048,7 +1066,7 @@
         <v>1400876.212550633</v>
       </c>
       <c r="AA5" t="n">
-        <v>814254.8755000001</v>
+        <v>1120700.970040506</v>
       </c>
       <c r="AB5" t="n">
         <v>1598</v>
@@ -1071,14 +1089,20 @@
       <c r="AH5" t="n">
         <v>0.04587155963302753</v>
       </c>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
+      <c r="AI5" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.49</v>
+      </c>
       <c r="AL5" t="n">
-        <v>0.02752293577981652</v>
+        <v>0.04</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.07548965712548</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="6">
@@ -1161,7 +1185,7 @@
         <v>1328409.034229979</v>
       </c>
       <c r="AA6" t="n">
-        <v>814254.8755000001</v>
+        <v>690772.6977995893</v>
       </c>
       <c r="AB6" t="n">
         <v>1598</v>
@@ -1184,14 +1208,20 @@
       <c r="AH6" t="n">
         <v>0.04587155963302753</v>
       </c>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
+      <c r="AI6" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.49</v>
+      </c>
       <c r="AL6" t="n">
-        <v>0.02752293577981652</v>
+        <v>0.1</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.07548965712548</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7">
@@ -1274,7 +1304,7 @@
         <v>1545815.76855955</v>
       </c>
       <c r="AA7" t="n">
-        <v>814254.8755000001</v>
+        <v>1205736.299476449</v>
       </c>
       <c r="AB7" t="n">
         <v>1598</v>
@@ -1297,14 +1327,20 @@
       <c r="AH7" t="n">
         <v>0.04587155963302753</v>
       </c>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AI7" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.49</v>
+      </c>
       <c r="AL7" t="n">
-        <v>0.02752293577981652</v>
+        <v>0.11</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.07548965712548</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -1387,7 +1423,7 @@
         <v>1196442.902578085</v>
       </c>
       <c r="AA8" t="n">
-        <v>814254.8755000001</v>
+        <v>622150.3093406043</v>
       </c>
       <c r="AB8" t="n">
         <v>1598</v>
@@ -1410,14 +1446,20 @@
       <c r="AH8" t="n">
         <v>0.04587155963302753</v>
       </c>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AI8" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.27</v>
+      </c>
       <c r="AL8" t="n">
-        <v>0.02752293577981652</v>
+        <v>0.03</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.07548965712548</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="9">
@@ -1500,7 +1542,7 @@
         <v>1060181.666614043</v>
       </c>
       <c r="AA9" t="n">
-        <v>814254.8755000001</v>
+        <v>710321.7166314089</v>
       </c>
       <c r="AB9" t="n">
         <v>1598</v>
@@ -1523,14 +1565,20 @@
       <c r="AH9" t="n">
         <v>0.04587155963302753</v>
       </c>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
+      <c r="AI9" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.33</v>
+      </c>
       <c r="AL9" t="n">
-        <v>0.02752293577981652</v>
+        <v>0.01</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.07548965712548</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="10">
@@ -1613,7 +1661,7 @@
         <v>1072771.637609773</v>
       </c>
       <c r="AA10" t="n">
-        <v>814254.8755000001</v>
+        <v>740212.4299507433</v>
       </c>
       <c r="AB10" t="n">
         <v>1598</v>
@@ -1636,14 +1684,20 @@
       <c r="AH10" t="n">
         <v>0.04587155963302753</v>
       </c>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+      <c r="AI10" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.45</v>
+      </c>
       <c r="AL10" t="n">
-        <v>0.02752293577981652</v>
+        <v>0.03</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.07548965712548</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="11">
@@ -1726,7 +1780,7 @@
         <v>1179441.873434521</v>
       </c>
       <c r="AA11" t="n">
-        <v>814254.8755000001</v>
+        <v>601515.355451606</v>
       </c>
       <c r="AB11" t="n">
         <v>1598</v>
@@ -1749,14 +1803,20 @@
       <c r="AH11" t="n">
         <v>0.04587155963302753</v>
       </c>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+      <c r="AI11" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.27</v>
+      </c>
       <c r="AL11" t="n">
-        <v>0.02752293577981652</v>
+        <v>0.08</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.07548965712548</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="12">
@@ -1839,7 +1899,7 @@
         <v>989598.5843251946</v>
       </c>
       <c r="AA12" t="n">
-        <v>814254.8755000001</v>
+        <v>742198.938243896</v>
       </c>
       <c r="AB12" t="n">
         <v>1598</v>
@@ -1862,14 +1922,20 @@
       <c r="AH12" t="n">
         <v>0.04587155963302753</v>
       </c>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
+      <c r="AI12" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.38</v>
+      </c>
       <c r="AL12" t="n">
-        <v>0.02752293577981652</v>
+        <v>0.05</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.07548965712548</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="13">
@@ -1952,7 +2018,7 @@
         <v>992311.493290509</v>
       </c>
       <c r="AA13" t="n">
-        <v>814254.8755000001</v>
+        <v>506078.8615781596</v>
       </c>
       <c r="AB13" t="n">
         <v>1598</v>
@@ -1975,14 +2041,20 @@
       <c r="AH13" t="n">
         <v>0.04587155963302753</v>
       </c>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
+      <c r="AI13" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.43</v>
+      </c>
       <c r="AL13" t="n">
-        <v>0.02752293577981652</v>
+        <v>0.05</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.07548965712548</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="14">
@@ -2065,7 +2137,7 @@
         <v>835703.1808311517</v>
       </c>
       <c r="AA14" t="n">
-        <v>814254.8755000001</v>
+        <v>526493.0039236256</v>
       </c>
       <c r="AB14" t="n">
         <v>1598</v>
@@ -2088,14 +2160,20 @@
       <c r="AH14" t="n">
         <v>0.04587155963302753</v>
       </c>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
+      <c r="AI14" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.39</v>
+      </c>
       <c r="AL14" t="n">
-        <v>0.02752293577981652</v>
+        <v>0.03</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.07548965712548</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="15">
@@ -2178,7 +2256,7 @@
         <v>1214996.665281347</v>
       </c>
       <c r="AA15" t="n">
-        <v>814254.8755000001</v>
+        <v>765447.8991272484</v>
       </c>
       <c r="AB15" t="n">
         <v>1598</v>
@@ -2201,14 +2279,20 @@
       <c r="AH15" t="n">
         <v>0.04587155963302753</v>
       </c>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
+      <c r="AI15" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0.3</v>
+      </c>
       <c r="AL15" t="n">
-        <v>0.02752293577981652</v>
+        <v>0.11</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.07548965712548</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -2291,7 +2375,7 @@
         <v>1138479.811967162</v>
       </c>
       <c r="AA16" t="n">
-        <v>814254.8755000001</v>
+        <v>967707.8401720877</v>
       </c>
       <c r="AB16" t="n">
         <v>1598</v>
@@ -2314,14 +2398,20 @@
       <c r="AH16" t="n">
         <v>0.04587155963302753</v>
       </c>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
+      <c r="AI16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.26</v>
+      </c>
       <c r="AL16" t="n">
-        <v>0.02752293577981652</v>
+        <v>0.1</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.07548965712548</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="17">
@@ -2404,7 +2494,7 @@
         <v>400664.8900586355</v>
       </c>
       <c r="AA17" t="n">
-        <v>814254.8755000001</v>
+        <v>216359.0406316632</v>
       </c>
       <c r="AB17" t="n">
         <v>1598</v>
@@ -2427,14 +2517,20 @@
       <c r="AH17" t="n">
         <v>0.04587155963302753</v>
       </c>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+      <c r="AI17" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.44</v>
+      </c>
       <c r="AL17" t="n">
-        <v>0.02752293577981652</v>
+        <v>0.05</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.07548965712548</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -2517,7 +2613,7 @@
         <v>1063498.012045594</v>
       </c>
       <c r="AA18" t="n">
-        <v>814254.8755000001</v>
+        <v>882703.3499978429</v>
       </c>
       <c r="AB18" t="n">
         <v>1598</v>
@@ -2540,14 +2636,20 @@
       <c r="AH18" t="n">
         <v>0.04587155963302753</v>
       </c>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
+      <c r="AI18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0.44</v>
+      </c>
       <c r="AL18" t="n">
-        <v>0.02752293577981652</v>
+        <v>0.03</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.07548965712548</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -2630,7 +2732,7 @@
         <v>1262001.990120797</v>
       </c>
       <c r="AA19" t="n">
-        <v>814254.8755000001</v>
+        <v>1060081.671701469</v>
       </c>
       <c r="AB19" t="n">
         <v>1598</v>
@@ -2653,14 +2755,20 @@
       <c r="AH19" t="n">
         <v>0.04587155963302753</v>
       </c>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+      <c r="AI19" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.36</v>
+      </c>
       <c r="AL19" t="n">
-        <v>0.02752293577981652</v>
+        <v>0.03</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.07548965712548</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="20">
@@ -2743,7 +2851,7 @@
         <v>1284330.383130158</v>
       </c>
       <c r="AA20" t="n">
-        <v>814254.8755000001</v>
+        <v>577948.6724085711</v>
       </c>
       <c r="AB20" t="n">
         <v>1598</v>
@@ -2766,14 +2874,20 @@
       <c r="AH20" t="n">
         <v>0.04587155963302753</v>
       </c>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+      <c r="AI20" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.26</v>
+      </c>
       <c r="AL20" t="n">
-        <v>0.02752293577981652</v>
+        <v>0.12</v>
       </c>
       <c r="AM20" t="n">
-        <v>0.07548965712548</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="21">
@@ -2856,7 +2970,7 @@
         <v>1505487.054980905</v>
       </c>
       <c r="AA21" t="n">
-        <v>814254.8755000001</v>
+        <v>1264609.12618396</v>
       </c>
       <c r="AB21" t="n">
         <v>1598</v>
@@ -2879,14 +2993,20 @@
       <c r="AH21" t="n">
         <v>0.04587155963302753</v>
       </c>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
+      <c r="AI21" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.3</v>
+      </c>
       <c r="AL21" t="n">
-        <v>0.02752293577981652</v>
+        <v>0.02</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.07548965712548</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="22">
@@ -2969,7 +3089,7 @@
         <v>1353981.049538705</v>
       </c>
       <c r="AA22" t="n">
-        <v>814254.8755000001</v>
+        <v>853008.061209384</v>
       </c>
       <c r="AB22" t="n">
         <v>1598</v>
@@ -2992,14 +3112,20 @@
       <c r="AH22" t="n">
         <v>0.04587155963302753</v>
       </c>
-      <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
+      <c r="AI22" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.3</v>
+      </c>
       <c r="AL22" t="n">
-        <v>0.02752293577981652</v>
+        <v>0.09</v>
       </c>
       <c r="AM22" t="n">
-        <v>0.07548965712548</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="23">
@@ -3082,7 +3208,7 @@
         <v>1477237.823953786</v>
       </c>
       <c r="AA23" t="n">
-        <v>814254.8755000001</v>
+        <v>842025.5596536581</v>
       </c>
       <c r="AB23" t="n">
         <v>1598</v>
@@ -3105,14 +3231,20 @@
       <c r="AH23" t="n">
         <v>0.04587155963302753</v>
       </c>
-      <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
+      <c r="AI23" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0.45</v>
+      </c>
       <c r="AL23" t="n">
-        <v>0.02752293577981652</v>
+        <v>0.05</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.07548965712548</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="24">
@@ -3195,7 +3327,7 @@
         <v>1132751.510475877</v>
       </c>
       <c r="AA24" t="n">
-        <v>814254.8755000001</v>
+        <v>826908.6026473903</v>
       </c>
       <c r="AB24" t="n">
         <v>1598</v>
@@ -3218,14 +3350,20 @@
       <c r="AH24" t="n">
         <v>0.04587155963302753</v>
       </c>
-      <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
+      <c r="AI24" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0.45</v>
+      </c>
       <c r="AL24" t="n">
-        <v>0.02752293577981652</v>
+        <v>0.05</v>
       </c>
       <c r="AM24" t="n">
-        <v>0.07548965712548</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="25">
@@ -3308,7 +3446,7 @@
         <v>941588.288853399</v>
       </c>
       <c r="AA25" t="n">
-        <v>814254.8755000001</v>
+        <v>969835.937519001</v>
       </c>
       <c r="AB25" t="n">
         <v>1598</v>
@@ -3331,14 +3469,20 @@
       <c r="AH25" t="n">
         <v>0.04587155963302753</v>
       </c>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
+      <c r="AI25" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.33</v>
+      </c>
       <c r="AL25" t="n">
-        <v>0.02752293577981652</v>
+        <v>0.05</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.07548965712548</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="26">
@@ -3421,7 +3565,7 @@
         <v>1249500.160383694</v>
       </c>
       <c r="AA26" t="n">
-        <v>814254.8755000001</v>
+        <v>912135.1170800965</v>
       </c>
       <c r="AB26" t="n">
         <v>1598</v>
@@ -3444,14 +3588,20 @@
       <c r="AH26" t="n">
         <v>0.04587155963302753</v>
       </c>
-      <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="inlineStr"/>
+      <c r="AI26" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.3</v>
+      </c>
       <c r="AL26" t="n">
         <v>0.02752293577981652</v>
       </c>
       <c r="AM26" t="n">
-        <v>0.07548965712548</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="27">
@@ -3534,7 +3684,7 @@
         <v>1192354.459860505</v>
       </c>
       <c r="AA27" t="n">
-        <v>834033.3600000007</v>
+        <v>1037348.38007864</v>
       </c>
       <c r="AB27" t="n">
         <v>1598</v>
@@ -3557,14 +3707,20 @@
       <c r="AH27" t="n">
         <v>0.0625</v>
       </c>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
-      <c r="AK27" t="inlineStr"/>
+      <c r="AI27" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0.3</v>
+      </c>
       <c r="AL27" t="n">
         <v>0.04464285714285714</v>
       </c>
       <c r="AM27" t="n">
-        <v>0.07548965712548</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="28">
@@ -3670,14 +3826,20 @@
       <c r="AH28" t="n">
         <v>0.09090909090909091</v>
       </c>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
-      <c r="AK28" t="inlineStr"/>
+      <c r="AI28" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0.35</v>
+      </c>
       <c r="AL28" t="n">
         <v>0.1</v>
       </c>
       <c r="AM28" t="n">
-        <v>0.07548965712548</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="29">
@@ -3783,14 +3945,20 @@
       <c r="AH29" t="n">
         <v>0.04464285714285714</v>
       </c>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
-      <c r="AK29" t="inlineStr"/>
+      <c r="AI29" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0.29</v>
+      </c>
       <c r="AL29" t="n">
         <v>0.05357142857142857</v>
       </c>
       <c r="AM29" t="n">
-        <v>0.07548965712548</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="30">
@@ -3896,14 +4064,20 @@
       <c r="AH30" t="n">
         <v>0.1031746031746032</v>
       </c>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
-      <c r="AK30" t="inlineStr"/>
+      <c r="AI30" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0.32</v>
+      </c>
       <c r="AL30" t="n">
         <v>0.03968253968253968</v>
       </c>
       <c r="AM30" t="n">
-        <v>0.07548965712548</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="31">
@@ -4009,14 +4183,20 @@
       <c r="AH31" t="n">
         <v>0.02439024390243903</v>
       </c>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
-      <c r="AK31" t="inlineStr"/>
+      <c r="AI31" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0.32</v>
+      </c>
       <c r="AL31" t="n">
         <v>0.008130081300813009</v>
       </c>
       <c r="AM31" t="n">
-        <v>0.07548965712548</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="32">
@@ -4122,9 +4302,15 @@
       <c r="AH32" t="n">
         <v>0.03333333333333333</v>
       </c>
-      <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="inlineStr"/>
+      <c r="AI32" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0.44</v>
+      </c>
       <c r="AL32" t="n">
         <v>0.04166666666666666</v>
       </c>
@@ -4235,9 +4421,15 @@
       <c r="AH33" t="n">
         <v>0.08064516129032258</v>
       </c>
-      <c r="AI33" t="inlineStr"/>
-      <c r="AJ33" t="inlineStr"/>
-      <c r="AK33" t="inlineStr"/>
+      <c r="AI33" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0.34</v>
+      </c>
       <c r="AL33" t="n">
         <v>0.04838709677419355</v>
       </c>
@@ -4348,9 +4540,15 @@
       <c r="AH34" t="n">
         <v>0.04201680672268908</v>
       </c>
-      <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="inlineStr"/>
-      <c r="AK34" t="inlineStr"/>
+      <c r="AI34" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0.27</v>
+      </c>
       <c r="AL34" t="n">
         <v>0.09243697478991597</v>
       </c>
@@ -4461,9 +4659,15 @@
       <c r="AH35" t="n">
         <v>0.07258064516129033</v>
       </c>
-      <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="inlineStr"/>
-      <c r="AK35" t="inlineStr"/>
+      <c r="AI35" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.48</v>
+      </c>
       <c r="AL35" t="n">
         <v>0.03225806451612903</v>
       </c>
@@ -4574,9 +4778,15 @@
       <c r="AH36" t="n">
         <v>0.02419354838709677</v>
       </c>
-      <c r="AI36" t="inlineStr"/>
-      <c r="AJ36" t="inlineStr"/>
-      <c r="AK36" t="inlineStr"/>
+      <c r="AI36" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0.46</v>
+      </c>
       <c r="AL36" t="n">
         <v>0.04032258064516129</v>
       </c>
@@ -4687,9 +4897,15 @@
       <c r="AH37" t="n">
         <v>0.01626016260162602</v>
       </c>
-      <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="inlineStr"/>
-      <c r="AK37" t="inlineStr"/>
+      <c r="AI37" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0.45</v>
+      </c>
       <c r="AL37" t="n">
         <v>0.02439024390243903</v>
       </c>
@@ -4800,9 +5016,15 @@
       <c r="AH38" t="n">
         <v>0.01666666666666667</v>
       </c>
-      <c r="AI38" t="inlineStr"/>
-      <c r="AJ38" t="inlineStr"/>
-      <c r="AK38" t="inlineStr"/>
+      <c r="AI38" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.52</v>
+      </c>
       <c r="AL38" t="n">
         <v>0.04166666666666666</v>
       </c>
@@ -4913,9 +5135,15 @@
       <c r="AH39" t="n">
         <v>0.03361344537815126</v>
       </c>
-      <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="inlineStr"/>
-      <c r="AK39" t="inlineStr"/>
+      <c r="AI39" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.31</v>
+      </c>
       <c r="AL39" t="n">
         <v>0.04201680672268908</v>
       </c>
@@ -5026,9 +5254,15 @@
       <c r="AH40" t="n">
         <v>0.03478260869565217</v>
       </c>
-      <c r="AI40" t="inlineStr"/>
-      <c r="AJ40" t="inlineStr"/>
-      <c r="AK40" t="inlineStr"/>
+      <c r="AI40" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.32</v>
+      </c>
       <c r="AL40" t="n">
         <v>0.06956521739130435</v>
       </c>
@@ -5139,9 +5373,15 @@
       <c r="AH41" t="n">
         <v>0.1048387096774194</v>
       </c>
-      <c r="AI41" t="inlineStr"/>
-      <c r="AJ41" t="inlineStr"/>
-      <c r="AK41" t="inlineStr"/>
+      <c r="AI41" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.34</v>
+      </c>
       <c r="AL41" t="n">
         <v>0.02419354838709677</v>
       </c>
@@ -5252,9 +5492,15 @@
       <c r="AH42" t="n">
         <v>0.048</v>
       </c>
-      <c r="AI42" t="inlineStr"/>
-      <c r="AJ42" t="inlineStr"/>
-      <c r="AK42" t="inlineStr"/>
+      <c r="AI42" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0.39</v>
+      </c>
       <c r="AL42" t="n">
         <v>0.048</v>
       </c>
@@ -5365,9 +5611,15 @@
       <c r="AH43" t="n">
         <v>0.02459016393442623</v>
       </c>
-      <c r="AI43" t="inlineStr"/>
-      <c r="AJ43" t="inlineStr"/>
-      <c r="AK43" t="inlineStr"/>
+      <c r="AI43" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0.54</v>
+      </c>
       <c r="AL43" t="n">
         <v>0.05737704918032787</v>
       </c>
@@ -5478,9 +5730,15 @@
       <c r="AH44" t="n">
         <v>0.05</v>
       </c>
-      <c r="AI44" t="inlineStr"/>
-      <c r="AJ44" t="inlineStr"/>
-      <c r="AK44" t="inlineStr"/>
+      <c r="AI44" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0.29</v>
+      </c>
       <c r="AL44" t="n">
         <v>0.09166666666666666</v>
       </c>
@@ -5591,9 +5849,15 @@
       <c r="AH45" t="n">
         <v>0.04958677685950413</v>
       </c>
-      <c r="AI45" t="inlineStr"/>
-      <c r="AJ45" t="inlineStr"/>
-      <c r="AK45" t="inlineStr"/>
+      <c r="AI45" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0.38</v>
+      </c>
       <c r="AL45" t="n">
         <v>0.04132231404958678</v>
       </c>
@@ -5704,9 +5968,15 @@
       <c r="AH46" t="n">
         <v>0.0873015873015873</v>
       </c>
-      <c r="AI46" t="inlineStr"/>
-      <c r="AJ46" t="inlineStr"/>
-      <c r="AK46" t="inlineStr"/>
+      <c r="AI46" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0.31</v>
+      </c>
       <c r="AL46" t="n">
         <v>0.04761904761904762</v>
       </c>
@@ -5817,9 +6087,15 @@
       <c r="AH47" t="n">
         <v>0.04032258064516129</v>
       </c>
-      <c r="AI47" t="inlineStr"/>
-      <c r="AJ47" t="inlineStr"/>
-      <c r="AK47" t="inlineStr"/>
+      <c r="AI47" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0.33</v>
+      </c>
       <c r="AL47" t="n">
         <v>0.08064516129032258</v>
       </c>
@@ -5930,9 +6206,15 @@
       <c r="AH48" t="n">
         <v>0.01639344262295082</v>
       </c>
-      <c r="AI48" t="inlineStr"/>
-      <c r="AJ48" t="inlineStr"/>
-      <c r="AK48" t="inlineStr"/>
+      <c r="AI48" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0.35</v>
+      </c>
       <c r="AL48" t="n">
         <v>0.03278688524590164</v>
       </c>
@@ -6043,9 +6325,15 @@
       <c r="AH49" t="n">
         <v>0.008130081300813009</v>
       </c>
-      <c r="AI49" t="inlineStr"/>
-      <c r="AJ49" t="inlineStr"/>
-      <c r="AK49" t="inlineStr"/>
+      <c r="AI49" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>0.34</v>
+      </c>
       <c r="AL49" t="n">
         <v>0.02439024390243903</v>
       </c>
@@ -6156,9 +6444,15 @@
       <c r="AH50" t="n">
         <v>0.02</v>
       </c>
-      <c r="AI50" t="inlineStr"/>
-      <c r="AJ50" t="inlineStr"/>
-      <c r="AK50" t="inlineStr"/>
+      <c r="AI50" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0.36</v>
+      </c>
       <c r="AL50" t="n">
         <v>0.02</v>
       </c>
@@ -6269,9 +6563,15 @@
       <c r="AH51" t="n">
         <v>0.02</v>
       </c>
-      <c r="AI51" t="inlineStr"/>
-      <c r="AJ51" t="inlineStr"/>
-      <c r="AK51" t="inlineStr"/>
+      <c r="AI51" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>0.33</v>
+      </c>
       <c r="AL51" t="n">
         <v>0.03</v>
       </c>
